--- a/data_analysis/no_threshold/no_thresh_mannwhitneyu.xlsx
+++ b/data_analysis/no_threshold/no_thresh_mannwhitneyu.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code_thesis\brain_connectivity_epilepsy\data_analysis\no_threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E72ACE5D-5F05-40CF-8014-779A275E9572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8BB118-93B0-489F-8779-A5F4247FF7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="1815" windowWidth="15045" windowHeight="8505"/>
+    <workbookView xWindow="11310" yWindow="2355" windowWidth="15045" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="no_thresh_mannwhitneyu" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -726,76 +726,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b val="0"/>
@@ -1128,11 +1059,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,19 +1104,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>8.9042612741706495E-2</v>
+        <v>9.9609810037299198E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>0.232657043923644</v>
+        <v>0.18898826832761301</v>
       </c>
       <c r="E2" s="2">
-        <v>0.41647295443355598</v>
+        <v>0.44464413780060502</v>
       </c>
       <c r="F2" s="2">
-        <v>0.39134131331508498</v>
+        <v>0.34949651010751498</v>
       </c>
       <c r="G2" s="2">
-        <v>0.454787384031553</v>
+        <v>0.49382972374237899</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1196,19 +1127,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>6.9908346943015107E-2</v>
+        <v>0.13606478265190999</v>
       </c>
       <c r="D3" s="4">
-        <v>0.296178130488366</v>
+        <v>0.38442598250750998</v>
       </c>
       <c r="E3" s="4">
-        <v>0.27414496773372898</v>
+        <v>0.215106421009226</v>
       </c>
       <c r="F3" s="4">
-        <v>1.6773559846444699E-2</v>
+        <v>1.14926400358214E-2</v>
       </c>
       <c r="G3" s="4">
-        <v>2.88267271845081E-2</v>
+        <v>2.4745621064602801E-2</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>39</v>
@@ -1222,19 +1153,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="6">
-        <v>3.3369789895744899E-2</v>
+        <v>6.6765902113606904E-2</v>
       </c>
       <c r="D4" s="6">
-        <v>0.27414496773372898</v>
+        <v>0.26298969548700701</v>
       </c>
       <c r="E4" s="6">
-        <v>0.35450919617979798</v>
+        <v>0.315797396529232</v>
       </c>
       <c r="F4" s="6">
-        <v>8.3928254562970594E-2</v>
+        <v>6.2853394230935597E-2</v>
       </c>
       <c r="G4" s="6">
-        <v>5.0635389811689697E-2</v>
+        <v>4.5905083238559199E-2</v>
       </c>
       <c r="I4" s="8">
         <v>0.05</v>
@@ -1248,19 +1179,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>0.296178130488366</v>
+        <v>0.38442598250750998</v>
       </c>
       <c r="D5" s="2">
-        <v>0.49352744993252501</v>
+        <v>0.40826586735999998</v>
       </c>
       <c r="E5" s="2">
-        <v>0.48058916300798499</v>
+        <v>0.44464413780060502</v>
       </c>
       <c r="F5" s="2">
-        <v>0.37893662429334701</v>
+        <v>0.45689058536119798</v>
       </c>
       <c r="G5" s="2">
-        <v>0.41647295443355598</v>
+        <v>0.49382972374237899</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1271,19 +1202,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>0.203984104196164</v>
+        <v>0.27318083322728098</v>
       </c>
       <c r="D6" s="2">
-        <v>0.14579859843964099</v>
+        <v>0.18898826832761301</v>
       </c>
       <c r="E6" s="2">
-        <v>0.19491535614368999</v>
+        <v>0.29413242475453499</v>
       </c>
       <c r="F6" s="2">
-        <v>0.16115444224223799</v>
+        <v>0.27318083322728098</v>
       </c>
       <c r="G6" s="2">
-        <v>0.138501997717032</v>
+        <v>0.233625639042956</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1294,19 +1225,19 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>6.1612901254583803E-2</v>
+        <v>0.12301617454913299</v>
       </c>
       <c r="D7" s="2">
-        <v>7.9037711782903003E-2</v>
+        <v>0.14293237185691701</v>
       </c>
       <c r="E7" s="2">
-        <v>0.131458279791073</v>
+        <v>0.20617592794401399</v>
       </c>
       <c r="F7" s="2">
-        <v>0.40385751915254098</v>
+        <v>0.33811447783202597</v>
       </c>
       <c r="G7" s="2">
-        <v>0.203984104196164</v>
+        <v>0.28356391047069701</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1317,19 +1248,19 @@
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>0.16115444224223799</v>
+        <v>0.215106421009226</v>
       </c>
       <c r="D8" s="2">
-        <v>0.169214401110834</v>
+        <v>0.25299651575947202</v>
       </c>
       <c r="E8" s="2">
-        <v>0.138501997717032</v>
+        <v>0.215106421009226</v>
       </c>
       <c r="F8" s="2">
-        <v>0.17752863738060101</v>
+        <v>0.26298969548700701</v>
       </c>
       <c r="G8" s="2">
-        <v>0.17752863738060101</v>
+        <v>0.26298969548700701</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1340,19 +1271,19 @@
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>0.49352744993252501</v>
+        <v>0.469178115215244</v>
       </c>
       <c r="D9" s="2">
-        <v>0.44195086601021999</v>
+        <v>0.40826586735999998</v>
       </c>
       <c r="E9" s="2">
-        <v>0.48058916300798499</v>
+        <v>0.43245030856800498</v>
       </c>
       <c r="F9" s="2">
-        <v>0.42917502469374202</v>
+        <v>0.49382972374237899</v>
       </c>
       <c r="G9" s="2">
-        <v>0.48058916300798499</v>
+        <v>0.48149507391474899</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1363,19 +1294,19 @@
         <v>14</v>
       </c>
       <c r="C10" s="4">
-        <v>7.9037711782903003E-2</v>
+        <v>8.9208211109108995E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>0.10577327073338499</v>
+        <v>0.12301617454913299</v>
       </c>
       <c r="E10" s="4">
-        <v>9.4385400787066503E-2</v>
+        <v>9.9609810037299198E-2</v>
       </c>
       <c r="F10" s="4">
-        <v>0.131458279791073</v>
+        <v>0.11087097463752101</v>
       </c>
       <c r="G10" s="4">
-        <v>0.12466583593593</v>
+        <v>0.105131305319667</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1386,19 +1317,19 @@
         <v>15</v>
       </c>
       <c r="C11" s="4">
-        <v>0.12466583593593</v>
+        <v>0.11087097463752101</v>
       </c>
       <c r="D11" s="4">
-        <v>0.296178130488366</v>
+        <v>0.33811447783202597</v>
       </c>
       <c r="E11" s="4">
-        <v>0.242690382984177</v>
+        <v>0.26298969548700701</v>
       </c>
       <c r="F11" s="4">
-        <v>0.42917502469374202</v>
+        <v>0.315797396529232</v>
       </c>
       <c r="G11" s="4">
-        <v>0.30749104602284499</v>
+        <v>0.233625639042956</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1409,19 +1340,19 @@
         <v>16</v>
       </c>
       <c r="C12" s="4">
-        <v>0.40385751915254098</v>
+        <v>0.34949651010751498</v>
       </c>
       <c r="D12" s="4">
-        <v>0.48058916300798499</v>
+        <v>0.44464413780060502</v>
       </c>
       <c r="E12" s="4">
-        <v>0.39134131331508498</v>
+        <v>0.38442598250750998</v>
       </c>
       <c r="F12" s="4">
-        <v>0.454787384031553</v>
+        <v>0.38442598250750998</v>
       </c>
       <c r="G12" s="4">
-        <v>0.49352744993252501</v>
+        <v>0.469178115215244</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1432,19 +1363,19 @@
         <v>17</v>
       </c>
       <c r="C13" s="4">
-        <v>6.5659107597635893E-2</v>
+        <v>4.3002393554140997E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>7.4366111113803701E-2</v>
+        <v>7.5153189852274802E-2</v>
       </c>
       <c r="E13" s="4">
-        <v>9.4385400787066503E-2</v>
+        <v>0.11087097463752101</v>
       </c>
       <c r="F13" s="4">
-        <v>0.14579859843964099</v>
+        <v>0.150030455582563</v>
       </c>
       <c r="G13" s="4">
-        <v>4.7343671737504603E-2</v>
+        <v>4.3002393554140997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1455,19 +1386,19 @@
         <v>18</v>
       </c>
       <c r="C14" s="4">
-        <v>5.0635389811689697E-2</v>
+        <v>4.3002393554140997E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>8.9042612741706495E-2</v>
+        <v>9.4303275693899402E-2</v>
       </c>
       <c r="E14" s="4">
-        <v>0.232657043923644</v>
+        <v>0.28356391047069701</v>
       </c>
       <c r="F14" s="4">
-        <v>0.19491535614368999</v>
+        <v>0.15735975335751901</v>
       </c>
       <c r="G14" s="4">
-        <v>0.44195086601021999</v>
+        <v>0.36101549765005297</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1478,19 +1409,19 @@
         <v>19</v>
       </c>
       <c r="C15" s="6">
-        <v>0.454787384031553</v>
+        <v>0.45689058536119798</v>
       </c>
       <c r="D15" s="6">
-        <v>0.37893662429334701</v>
+        <v>0.304879399612212</v>
       </c>
       <c r="E15" s="6">
-        <v>0.39134131331508498</v>
+        <v>0.304879399612212</v>
       </c>
       <c r="F15" s="6">
-        <v>0.49352744993252501</v>
+        <v>0.42032048369946701</v>
       </c>
       <c r="G15" s="6">
-        <v>0.49352744993252501</v>
+        <v>0.40826586735999998</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1501,19 +1432,19 @@
         <v>20</v>
       </c>
       <c r="C16" s="6">
-        <v>0.138501997717032</v>
+        <v>8.4320867787845102E-2</v>
       </c>
       <c r="D16" s="6">
-        <v>0.34250918087247301</v>
+        <v>0.315797396529232</v>
       </c>
       <c r="E16" s="6">
-        <v>0.31899010409039202</v>
+        <v>0.27318083322728098</v>
       </c>
       <c r="F16" s="6">
-        <v>0.36665539631668598</v>
+        <v>0.49382972374237899</v>
       </c>
       <c r="G16" s="6">
-        <v>0.41647295443355598</v>
+        <v>0.48149507391474899</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1524,19 +1455,19 @@
         <v>21</v>
       </c>
       <c r="C17" s="6">
-        <v>0.242690382984177</v>
+        <v>0.36101549765005297</v>
       </c>
       <c r="D17" s="6">
-        <v>0.203984104196164</v>
+        <v>0.28356391047069701</v>
       </c>
       <c r="E17" s="6">
-        <v>0.34250918087247301</v>
+        <v>0.43245030856800498</v>
       </c>
       <c r="F17" s="6">
-        <v>0.39134131331508498</v>
+        <v>0.36101549765005297</v>
       </c>
       <c r="G17" s="6">
-        <v>0.40385751915254098</v>
+        <v>0.43245030856800498</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1547,19 +1478,19 @@
         <v>22</v>
       </c>
       <c r="C18" s="6">
-        <v>0.25295344246198898</v>
+        <v>0.16492055867722299</v>
       </c>
       <c r="D18" s="6">
-        <v>7.9037711782903003E-2</v>
+        <v>7.0864259897808105E-2</v>
       </c>
       <c r="E18" s="6">
-        <v>1.6773559846444699E-2</v>
+        <v>1.7044930494622499E-2</v>
       </c>
       <c r="F18" s="6">
-        <v>0.39134131331508498</v>
+        <v>0.49382972374237899</v>
       </c>
       <c r="G18" s="6">
-        <v>3.1029517728176199E-2</v>
+        <v>1.7044930494622499E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1570,19 +1501,19 @@
         <v>23</v>
       </c>
       <c r="C19" s="6">
-        <v>0.25295344246198898</v>
+        <v>0.224257497996283</v>
       </c>
       <c r="D19" s="6">
-        <v>0.26344043430946301</v>
+        <v>0.233625639042956</v>
       </c>
       <c r="E19" s="6">
-        <v>0.27414496773372898</v>
+        <v>0.233625639042956</v>
       </c>
       <c r="F19" s="6">
-        <v>0.44195086601021999</v>
+        <v>0.36101549765005297</v>
       </c>
       <c r="G19" s="6">
-        <v>0.31899010409039202</v>
+        <v>0.27318083322728098</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1593,19 +1524,19 @@
         <v>24</v>
       </c>
       <c r="C20" s="2">
-        <v>0.16115444224223799</v>
+        <v>0.243206820669577</v>
       </c>
       <c r="D20" s="2">
-        <v>0.19491535614368999</v>
+        <v>0.28356391047069701</v>
       </c>
       <c r="E20" s="2">
-        <v>0.26344043430946301</v>
+        <v>0.36101549765005297</v>
       </c>
       <c r="F20" s="2">
-        <v>0.169214401110834</v>
+        <v>0.25299651575947202</v>
       </c>
       <c r="G20" s="2">
-        <v>0.19491535614368999</v>
+        <v>0.28356391047069701</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1616,19 +1547,19 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>0.16115444224223799</v>
+        <v>0.197469036968352</v>
       </c>
       <c r="D21" s="2">
-        <v>0.111826048481327</v>
+        <v>0.16492055867722299</v>
       </c>
       <c r="E21" s="2">
-        <v>3.8486689758399299E-2</v>
+        <v>6.6765902113606904E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>0.12466583593593</v>
+        <v>0.14293237185691701</v>
       </c>
       <c r="G21" s="2">
-        <v>0.131458279791073</v>
+        <v>0.16492055867722299</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1639,19 +1570,19 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>8.3928254562970594E-2</v>
+        <v>0.116831732478344</v>
       </c>
       <c r="D22" s="2">
-        <v>0.10577327073338499</v>
+        <v>0.15735975335751901</v>
       </c>
       <c r="E22" s="2">
-        <v>0.22285860568924501</v>
+        <v>0.29413242475453499</v>
       </c>
       <c r="F22" s="2">
-        <v>0.12466583593593</v>
+        <v>0.16492055867722299</v>
       </c>
       <c r="G22" s="2">
-        <v>0.10577327073338499</v>
+        <v>0.150030455582563</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1662,19 +1593,19 @@
         <v>27</v>
       </c>
       <c r="C23" s="2">
-        <v>0.296178130488366</v>
+        <v>0.29413242475453499</v>
       </c>
       <c r="D23" s="2">
-        <v>0.49352744993252501</v>
+        <v>0.49382972374237899</v>
       </c>
       <c r="E23" s="2">
-        <v>9.4385400787066503E-2</v>
+        <v>0.11087097463752101</v>
       </c>
       <c r="F23" s="2">
-        <v>0.26344043430946301</v>
+        <v>0.224257497996283</v>
       </c>
       <c r="G23" s="2">
-        <v>0.454787384031553</v>
+        <v>0.40826586735999998</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,19 +1616,19 @@
         <v>28</v>
       </c>
       <c r="C24" s="2">
-        <v>0.169214401110834</v>
+        <v>0.233625639042956</v>
       </c>
       <c r="D24" s="2">
-        <v>0.27414496773372898</v>
+        <v>0.33811447783202597</v>
       </c>
       <c r="E24" s="2">
-        <v>0.169214401110834</v>
+        <v>0.26298969548700701</v>
       </c>
       <c r="F24" s="2">
-        <v>0.14579859843964099</v>
+        <v>0.20617592794401399</v>
       </c>
       <c r="G24" s="2">
-        <v>0.19491535614368999</v>
+        <v>0.25299651575947202</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1708,19 +1639,19 @@
         <v>29</v>
       </c>
       <c r="C25" s="4">
-        <v>0.42917502469374202</v>
+        <v>0.32687852888302499</v>
       </c>
       <c r="D25" s="4">
-        <v>0.31899010409039202</v>
+        <v>0.233625639042956</v>
       </c>
       <c r="E25" s="4">
-        <v>0.203984104196164</v>
+        <v>0.304879399612212</v>
       </c>
       <c r="F25" s="4">
-        <v>0.15334920664201801</v>
+        <v>0.243206820669577</v>
       </c>
       <c r="G25" s="4">
-        <v>0.22285860568924501</v>
+        <v>0.32687852888302499</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1731,19 +1662,19 @@
         <v>30</v>
       </c>
       <c r="C26" s="4">
-        <v>0.213299638795481</v>
+        <v>0.28356391047069701</v>
       </c>
       <c r="D26" s="4">
-        <v>0.19491535614368999</v>
+        <v>0.315797396529232</v>
       </c>
       <c r="E26" s="4">
-        <v>0.22285860568924501</v>
+        <v>0.34949651010751498</v>
       </c>
       <c r="F26" s="4">
-        <v>0.232657043923644</v>
+        <v>0.180735649903082</v>
       </c>
       <c r="G26" s="4">
-        <v>0.31899010409039202</v>
+        <v>0.215106421009226</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1754,19 +1685,19 @@
         <v>31</v>
       </c>
       <c r="C27" s="4">
-        <v>0.37893662429334701</v>
+        <v>0.304879399612212</v>
       </c>
       <c r="D27" s="4">
-        <v>0.49352744993252501</v>
+        <v>0.49382972374237899</v>
       </c>
       <c r="E27" s="4">
-        <v>0.131458279791073</v>
+        <v>0.180735649903082</v>
       </c>
       <c r="F27" s="4">
-        <v>0.16115444224223799</v>
+        <v>0.20617592794401399</v>
       </c>
       <c r="G27" s="4">
-        <v>0.14579859843964099</v>
+        <v>0.18898826832761301</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1777,19 +1708,19 @@
         <v>32</v>
       </c>
       <c r="C28" s="4">
-        <v>2.67555237061416E-2</v>
+        <v>5.9121880688973401E-2</v>
       </c>
       <c r="D28" s="4">
-        <v>0.26344043430946301</v>
+        <v>0.39629745083198498</v>
       </c>
       <c r="E28" s="4">
-        <v>0.49352744993252501</v>
+        <v>0.40826586735999998</v>
       </c>
       <c r="F28" s="4">
-        <v>0.40385751915254098</v>
+        <v>0.48149507391474899</v>
       </c>
       <c r="G28" s="4">
-        <v>0.37893662429334701</v>
+        <v>0.48149507391474899</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1800,19 +1731,19 @@
         <v>33</v>
       </c>
       <c r="C29" s="4">
-        <v>0.16115444224223799</v>
+        <v>0.26298969548700701</v>
       </c>
       <c r="D29" s="4">
-        <v>0.169214401110834</v>
+        <v>0.28356391047069701</v>
       </c>
       <c r="E29" s="4">
-        <v>6.9908346943015107E-2</v>
+        <v>0.14293237185691701</v>
       </c>
       <c r="F29" s="4">
-        <v>0.138501997717032</v>
+        <v>0.197469036968352</v>
       </c>
       <c r="G29" s="4">
-        <v>0.11812259538895099</v>
+        <v>0.215106421009226</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1823,19 +1754,19 @@
         <v>34</v>
       </c>
       <c r="C30" s="6">
-        <v>0.213299638795481</v>
+        <v>0.26298969548700701</v>
       </c>
       <c r="D30" s="6">
-        <v>0.22285860568924501</v>
+        <v>0.26298969548700701</v>
       </c>
       <c r="E30" s="6">
-        <v>0.35450919617979798</v>
+        <v>0.42032048369946701</v>
       </c>
       <c r="F30" s="6">
-        <v>0.37893662429334701</v>
+        <v>0.43245030856800498</v>
       </c>
       <c r="G30" s="6">
-        <v>0.31899010409039202</v>
+        <v>0.36101549765005297</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1846,19 +1777,19 @@
         <v>35</v>
       </c>
       <c r="C31" s="6">
-        <v>0.49352744993252501</v>
+        <v>0.469178115215244</v>
       </c>
       <c r="D31" s="6">
-        <v>0.31899010409039202</v>
+        <v>0.29413242475453499</v>
       </c>
       <c r="E31" s="6">
-        <v>0.17752863738060101</v>
+        <v>0.15735975335751901</v>
       </c>
       <c r="F31" s="6">
-        <v>0.12466583593593</v>
+        <v>0.11087097463752101</v>
       </c>
       <c r="G31" s="6">
-        <v>0.12466583593593</v>
+        <v>7.5153189852274802E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1869,19 +1800,19 @@
         <v>36</v>
       </c>
       <c r="C32" s="6">
-        <v>0.11812259538895099</v>
+        <v>0.11087097463752101</v>
       </c>
       <c r="D32" s="6">
-        <v>0.33066606728022602</v>
+        <v>0.39629745083198498</v>
       </c>
       <c r="E32" s="6">
-        <v>0.40385751915254098</v>
+        <v>0.39629745083198498</v>
       </c>
       <c r="F32" s="6">
-        <v>0.41647295443355598</v>
+        <v>0.44464413780060502</v>
       </c>
       <c r="G32" s="6">
-        <v>0.46767129420681802</v>
+        <v>0.48149507391474899</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1892,19 +1823,19 @@
         <v>37</v>
       </c>
       <c r="C33" s="6">
-        <v>4.42256933362715E-2</v>
+        <v>8.9208211109108995E-2</v>
       </c>
       <c r="D33" s="6">
-        <v>0.27414496773372898</v>
+        <v>0.40826586735999998</v>
       </c>
       <c r="E33" s="6">
-        <v>0.36665539631668598</v>
+        <v>0.27318083322728098</v>
       </c>
       <c r="F33" s="6">
-        <v>0.48058916300798499</v>
+        <v>0.39629745083198498</v>
       </c>
       <c r="G33" s="6">
-        <v>0.41647295443355598</v>
+        <v>0.49382972374237899</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,19 +1846,19 @@
         <v>38</v>
       </c>
       <c r="C34" s="6">
-        <v>0.48058916300798499</v>
+        <v>0.49382972374237899</v>
       </c>
       <c r="D34" s="6">
-        <v>0.49352744993252501</v>
+        <v>0.48149507391474899</v>
       </c>
       <c r="E34" s="6">
-        <v>0.37893662429334701</v>
+        <v>0.40826586735999998</v>
       </c>
       <c r="F34" s="6">
-        <v>0.31899010409039202</v>
+        <v>0.32687852888302499</v>
       </c>
       <c r="G34" s="6">
-        <v>0.34250918087247301</v>
+        <v>0.33811447783202597</v>
       </c>
     </row>
   </sheetData>
